--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Course\3_Python\300CodeExercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\_thangle15894\_code\300CodeExercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7351C7E6-106E-45A1-B912-0E3471C0CC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF37984-21CF-41D9-9973-3E4B1D610E9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -153,13 +153,121 @@
   </si>
   <si>
     <t>CÁC LỆNH / HÀM CẦN NHỚ</t>
+  </si>
+  <si>
+    <r>
+      <t>stack</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> là một cấu trúc dữ liệu hoạt động theo nguyên tắc LIFO (Last In, First Out), nghĩa là phần tử được thêm vào sau cùng sẽ được lấy ra trước.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pop()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cho phép bạn truy cập phần tử gần nhất được thêm vào ngăn xếp. Sau khi lấy phần tử ra, nó cũng sẽ bị xóa khỏi ngăn xếp, do đó không còn tồn tại trong cấu trúc dữ liệu này.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># Khởi tạo ngăn xếp
+stack = []
+# Thêm số vào ngăn xếp
+stack.append(1)
+stack.append(2)
+stack.append(3)
+print("Ngăn xếp sau khi thêm số:", stack)
+# Lấy số ra từ ngăn xếp
+top_number = stack.pop()
+print("Số lấy ra từ ngăn xếp:", top_number)
+print("Ngăn xếp sau khi lấy số:", stack)
+# Lấy thêm một số ra
+top_number = stack.pop()
+print("Số lấy ra từ ngăn xếp:", top_number)
+print("Ngăn xếp sau khi lấy số:", stack)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngăn xếp sau khi thêm số: [1, 2, 3]
+Số lấy ra từ ngăn xếp: 3
+Ngăn xếp sau khi lấy số: [1, 2]
+Số lấy ra từ ngăn xếp: 2
+Ngăn xếp sau khi lấy số: [1]
+</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,16 +314,48 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -266,12 +406,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,17 +480,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,163 +806,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="121.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="36.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="45.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="11"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="11"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="11"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\_thangle15894\_code\300CodeExercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF37984-21CF-41D9-9973-3E4B1D610E9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3904253E-7927-44B3-987B-E429360AB4D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -37,21 +37,6 @@
   </si>
   <si>
     <t>Ý nghĩa</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hàm </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>All</t>
-    </r>
   </si>
   <si>
     <r>
@@ -262,12 +247,144 @@
   <si>
     <t>Kết quả</t>
   </si>
+  <si>
+    <r>
+      <t>bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>-bin(n) thường chỉ biểu diễn nhị phân của số nguyên n. Để chuyển đổi một số thập phân sang nhị phân, bạn có thể chia số đó cho 2 nhiều lần và ghi lại các số dư.</t>
+  </si>
+  <si>
+    <t>0b1111'</t>
+  </si>
+  <si>
+    <r>
+      <t>bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF669900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <r>
+      <t>n = 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bin(n)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +442,47 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF669900"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF999999"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -355,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -458,12 +616,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,15 +670,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,9 +686,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,6 +699,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,7 +999,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +1013,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="45.75" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -832,169 +1022,183 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>12</v>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="20"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="20"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="20"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="20"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="20"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="20"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="20"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="20"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="20"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="20"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="20"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\_thangle15894\_code\300CodeExercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\_thangle15894\_code\_300CodeExercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3904253E-7927-44B3-987B-E429360AB4D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E63F1F-4DBF-48E9-8850-9D576A0983D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -378,6 +378,24 @@
       </rPr>
       <t>bin(n)</t>
     </r>
+  </si>
+  <si>
+    <t>my_dict.items()</t>
+  </si>
+  <si>
+    <t>Phương thức này trả về một view object, mà bạn có thể lặp qua để lấy từng cặp key-value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+my_dict = { 'a': 1, 'b': 2, 'c': 3 } # Sử dụng .items() để lấy các cặp key-value 
+for key, value in my_dict.items(): 
+      print(f"Key: {key}, Value: {value}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key: a, Value: 1
+Key: b, Value: 2
+Key: c, Value: 3
+</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1017,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,12 +1113,22 @@
       <c r="D9" s="13"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="17"/>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\_thangle15894\_code\_300CodeExercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E63F1F-4DBF-48E9-8850-9D576A0983D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF0B49A-853D-4F32-A5DF-C841CD937810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -395,6 +395,25 @@
     <t xml:space="preserve">Key: a, Value: 1
 Key: b, Value: 2
 Key: c, Value: 3
+</t>
+  </si>
+  <si>
+    <t>str.startswith(prefix[, start[, end]])</t>
+  </si>
+  <si>
+    <t>- Một phương thức của đối tượng chuỗi (str) được sử dụng để kiểm tra xem chuỗi hiện tại có bắt đầu bằng một chuỗi con nhất định hay không. Đây là một phương thức rất hữu ích trong nhiều tình huống, đặc biệt là khi bạn cần kiểm tra các tiền tố của chuỗi.
++ prefix: Đây là chuỗi con (hoặc một tuple các chuỗi) mà bạn muốn kiểm tra xem nó có phải là tiền tố của chuỗi hiện tại hay không.
++ start (tùy chọn): Vị trí bắt đầu trong chuỗi mà bạn muốn bắt đầu kiểm tra. Mặc định là 0 (bắt đầu từ đầu chuỗi).
++ end (tùy chọn): Vị trí kết thúc trong chuỗi mà bạn muốn kiểm tra. Mặc định là chiều dài của chuỗi.
+- Bạn có thể kiểm tra nhiều chuỗi con cùng lúc bằng cách truyền một tuple vào startswith(). Hàm sẽ trả về True nếu chuỗi bắt đầu bằng bất kỳ một trong các chuỗi con trong tuple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text = "Hello, world!"
+print(text.startswith("lo", 3))   # Trả về True (bắt đầu kiểm tra từ chỉ số 3)
+print(text.startswith("lo", 2, 5)) # Trả về False (kiểm tra từ chỉ số 2 đến 5)
+text = "Hello, world!"
+print(text.startswith(("Hello", "Hi")))  # Trả về True
+print(text.startswith(("Hi", "Greetings"))) # Trả về False
 </t>
   </si>
 </sst>
@@ -1016,14 +1035,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="121.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="36.85546875" style="1"/>
@@ -1130,11 +1149,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="13"/>
+    <row r="11" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\_thangle15894\_code\_300CodeExercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF0B49A-853D-4F32-A5DF-C841CD937810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F8F95D-4650-4D68-80CE-A55CE30CEEA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -416,12 +416,76 @@
 print(text.startswith(("Hi", "Greetings"))) # Trả về False
 </t>
   </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FFFFB86C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF79C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:0&gt;32b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBD93F9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">n = 0b00000010100101000001111010011100
+# Định dạng n thành nhị phân với 32 bit và các số 0 ở phía trước
+binary_representation = f"{n:0&gt;32b}"
+print(f'binary number {binary_representation} = {n}')
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">một cách để định dạng số nguyên </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> thành dạng nhị phân, với các số 0 ở phía trước, để đảm bảo tổng số bit là 32.
+nếu là 64 bit thì là {n:0&gt;64b}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +584,25 @@
     <font>
       <sz val="11"/>
       <color rgb="FF999999"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFBD93F9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFFB86C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF79C6"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -1035,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,11 +1247,19 @@
       </c>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
+    <row r="12" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
